--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Lgi4-Adam22.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Lgi4-Adam22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -88,13 +94,10 @@
     <t>Adam22</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>M1</t>
   </si>
   <si>
-    <t>M2</t>
+    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.68344477498283</v>
+        <v>0.070204</v>
       </c>
       <c r="H2">
-        <v>1.68344477498283</v>
+        <v>0.210612</v>
       </c>
       <c r="I2">
-        <v>0.4662378505807585</v>
+        <v>0.01768138548345256</v>
       </c>
       <c r="J2">
-        <v>0.4662378505807585</v>
+        <v>0.01768138548345256</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.46712912813091</v>
+        <v>1.715363</v>
       </c>
       <c r="N2">
-        <v>1.46712912813091</v>
+        <v>5.146089</v>
       </c>
       <c r="O2">
-        <v>0.1694495254600549</v>
+        <v>0.1765901754351529</v>
       </c>
       <c r="P2">
-        <v>0.1694495254600549</v>
+        <v>0.1765901754351529</v>
       </c>
       <c r="Q2">
-        <v>2.469830864977095</v>
+        <v>0.120425344052</v>
       </c>
       <c r="R2">
-        <v>2.469830864977095</v>
+        <v>1.083828096468</v>
       </c>
       <c r="S2">
-        <v>0.0790037825324255</v>
+        <v>0.003122358964459454</v>
       </c>
       <c r="T2">
-        <v>0.0790037825324255</v>
+        <v>0.003122358964459454</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.68344477498283</v>
+        <v>0.070204</v>
       </c>
       <c r="H3">
-        <v>1.68344477498283</v>
+        <v>0.210612</v>
       </c>
       <c r="I3">
-        <v>0.4662378505807585</v>
+        <v>0.01768138548345256</v>
       </c>
       <c r="J3">
-        <v>0.4662378505807585</v>
+        <v>0.01768138548345256</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.08748137927263</v>
+        <v>1.134481666666667</v>
       </c>
       <c r="N3">
-        <v>1.08748137927263</v>
+        <v>3.403445</v>
       </c>
       <c r="O3">
-        <v>0.1256012167784802</v>
+        <v>0.1167906248092277</v>
       </c>
       <c r="P3">
-        <v>0.1256012167784802</v>
+        <v>0.1167906248092278</v>
       </c>
       <c r="Q3">
-        <v>1.830714845827631</v>
+        <v>0.07964515092666667</v>
       </c>
       <c r="R3">
-        <v>1.830714845827631</v>
+        <v>0.7168063583399999</v>
       </c>
       <c r="S3">
-        <v>0.05856004134112653</v>
+        <v>0.002065020058105234</v>
       </c>
       <c r="T3">
-        <v>0.05856004134112653</v>
+        <v>0.002065020058105234</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.68344477498283</v>
+        <v>0.070204</v>
       </c>
       <c r="H4">
-        <v>1.68344477498283</v>
+        <v>0.210612</v>
       </c>
       <c r="I4">
-        <v>0.4662378505807585</v>
+        <v>0.01768138548345256</v>
       </c>
       <c r="J4">
-        <v>0.4662378505807585</v>
+        <v>0.01768138548345256</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.655522186067547</v>
+        <v>0.8505606666666666</v>
       </c>
       <c r="N4">
-        <v>0.655522186067547</v>
+        <v>2.551682</v>
       </c>
       <c r="O4">
-        <v>0.0757110749339388</v>
+        <v>0.08756202468218523</v>
       </c>
       <c r="P4">
-        <v>0.0757110749339388</v>
+        <v>0.08756202468218523</v>
       </c>
       <c r="Q4">
-        <v>1.103535399020734</v>
+        <v>0.05971276104266666</v>
       </c>
       <c r="R4">
-        <v>1.103535399020734</v>
+        <v>0.537414849384</v>
       </c>
       <c r="S4">
-        <v>0.03529936884235837</v>
+        <v>0.001548217912117305</v>
       </c>
       <c r="T4">
-        <v>0.03529936884235837</v>
+        <v>0.001548217912117305</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.68344477498283</v>
+        <v>0.070204</v>
       </c>
       <c r="H5">
-        <v>1.68344477498283</v>
+        <v>0.210612</v>
       </c>
       <c r="I5">
-        <v>0.4662378505807585</v>
+        <v>0.01768138548345256</v>
       </c>
       <c r="J5">
-        <v>0.4662378505807585</v>
+        <v>0.01768138548345256</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.17277375825517</v>
+        <v>2.293933666666666</v>
       </c>
       <c r="N5">
-        <v>2.17277375825517</v>
+        <v>6.881800999999999</v>
       </c>
       <c r="O5">
-        <v>0.2509496098257186</v>
+        <v>0.2361518516099917</v>
       </c>
       <c r="P5">
-        <v>0.2509496098257186</v>
+        <v>0.2361518516099917</v>
       </c>
       <c r="Q5">
-        <v>3.657744630554473</v>
+        <v>0.1610433191346667</v>
       </c>
       <c r="R5">
-        <v>3.657744630554473</v>
+        <v>1.449389872212</v>
       </c>
       <c r="S5">
-        <v>0.117002206689223</v>
+        <v>0.00417549192094735</v>
       </c>
       <c r="T5">
-        <v>0.117002206689223</v>
+        <v>0.004175491920947351</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>1.68344477498283</v>
+        <v>0.070204</v>
       </c>
       <c r="H6">
-        <v>1.68344477498283</v>
+        <v>0.210612</v>
       </c>
       <c r="I6">
-        <v>0.4662378505807585</v>
+        <v>0.01768138548345256</v>
       </c>
       <c r="J6">
-        <v>0.4662378505807585</v>
+        <v>0.01768138548345256</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>3.27530090617374</v>
+        <v>0.1715316666666667</v>
       </c>
       <c r="N6">
-        <v>3.27530090617374</v>
+        <v>0.514595</v>
       </c>
       <c r="O6">
-        <v>0.3782885730018076</v>
+        <v>0.01765854055925821</v>
       </c>
       <c r="P6">
-        <v>0.3782885730018076</v>
+        <v>0.01765854055925821</v>
       </c>
       <c r="Q6">
-        <v>5.513788196994711</v>
+        <v>0.01204220912666667</v>
       </c>
       <c r="R6">
-        <v>5.513788196994711</v>
+        <v>0.10837988214</v>
       </c>
       <c r="S6">
-        <v>0.1763724511756251</v>
+        <v>0.0003122274627034263</v>
       </c>
       <c r="T6">
-        <v>0.1763724511756251</v>
+        <v>0.0003122274627034263</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>1.92725472718304</v>
+        <v>0.070204</v>
       </c>
       <c r="H7">
-        <v>1.92725472718304</v>
+        <v>0.210612</v>
       </c>
       <c r="I7">
-        <v>0.5337621494192415</v>
+        <v>0.01768138548345256</v>
       </c>
       <c r="J7">
-        <v>0.5337621494192415</v>
+        <v>0.01768138548345256</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.46712912813091</v>
+        <v>3.547937</v>
       </c>
       <c r="N7">
-        <v>1.46712912813091</v>
+        <v>10.643811</v>
       </c>
       <c r="O7">
-        <v>0.1694495254600549</v>
+        <v>0.3652467829041842</v>
       </c>
       <c r="P7">
-        <v>0.1694495254600549</v>
+        <v>0.3652467829041842</v>
       </c>
       <c r="Q7">
-        <v>2.827531547578229</v>
+        <v>0.249079369148</v>
       </c>
       <c r="R7">
-        <v>2.827531547578229</v>
+        <v>2.241714322332</v>
       </c>
       <c r="S7">
-        <v>0.09044574292762937</v>
+        <v>0.006458069165119791</v>
       </c>
       <c r="T7">
-        <v>0.09044574292762937</v>
+        <v>0.006458069165119791</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.92725472718304</v>
+        <v>1.750232666666667</v>
       </c>
       <c r="H8">
-        <v>1.92725472718304</v>
+        <v>5.250698</v>
       </c>
       <c r="I8">
-        <v>0.5337621494192415</v>
+        <v>0.4408087639602368</v>
       </c>
       <c r="J8">
-        <v>0.5337621494192415</v>
+        <v>0.4408087639602368</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.08748137927263</v>
+        <v>1.715363</v>
       </c>
       <c r="N8">
-        <v>1.08748137927263</v>
+        <v>5.146089</v>
       </c>
       <c r="O8">
-        <v>0.1256012167784802</v>
+        <v>0.1765901754351529</v>
       </c>
       <c r="P8">
-        <v>0.1256012167784802</v>
+        <v>0.1765901754351529</v>
       </c>
       <c r="Q8">
-        <v>2.095853628926709</v>
+        <v>3.002284357791333</v>
       </c>
       <c r="R8">
-        <v>2.095853628926709</v>
+        <v>27.020559220122</v>
       </c>
       <c r="S8">
-        <v>0.06704117543735372</v>
+        <v>0.07784249696109113</v>
       </c>
       <c r="T8">
-        <v>0.06704117543735372</v>
+        <v>0.07784249696109113</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.92725472718304</v>
+        <v>1.750232666666667</v>
       </c>
       <c r="H9">
-        <v>1.92725472718304</v>
+        <v>5.250698</v>
       </c>
       <c r="I9">
-        <v>0.5337621494192415</v>
+        <v>0.4408087639602368</v>
       </c>
       <c r="J9">
-        <v>0.5337621494192415</v>
+        <v>0.4408087639602368</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.655522186067547</v>
+        <v>1.134481666666667</v>
       </c>
       <c r="N9">
-        <v>0.655522186067547</v>
+        <v>3.403445</v>
       </c>
       <c r="O9">
-        <v>0.0757110749339388</v>
+        <v>0.1167906248092277</v>
       </c>
       <c r="P9">
-        <v>0.0757110749339388</v>
+        <v>0.1167906248092278</v>
       </c>
       <c r="Q9">
-        <v>1.26335823187204</v>
+        <v>1.985606872734444</v>
       </c>
       <c r="R9">
-        <v>1.26335823187204</v>
+        <v>17.87046185461</v>
       </c>
       <c r="S9">
-        <v>0.04041170609158044</v>
+        <v>0.05148233096429945</v>
       </c>
       <c r="T9">
-        <v>0.04041170609158044</v>
+        <v>0.05148233096429945</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.92725472718304</v>
+        <v>1.750232666666667</v>
       </c>
       <c r="H10">
-        <v>1.92725472718304</v>
+        <v>5.250698</v>
       </c>
       <c r="I10">
-        <v>0.5337621494192415</v>
+        <v>0.4408087639602368</v>
       </c>
       <c r="J10">
-        <v>0.5337621494192415</v>
+        <v>0.4408087639602368</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.17277375825517</v>
+        <v>0.8505606666666666</v>
       </c>
       <c r="N10">
-        <v>2.17277375825517</v>
+        <v>2.551682</v>
       </c>
       <c r="O10">
-        <v>0.2509496098257186</v>
+        <v>0.08756202468218523</v>
       </c>
       <c r="P10">
-        <v>0.2509496098257186</v>
+        <v>0.08756202468218523</v>
       </c>
       <c r="Q10">
-        <v>4.187488496696536</v>
+        <v>1.488679063781778</v>
       </c>
       <c r="R10">
-        <v>4.187488496696536</v>
+        <v>13.398111574036</v>
       </c>
       <c r="S10">
-        <v>0.1339474031364956</v>
+        <v>0.03859810787000981</v>
       </c>
       <c r="T10">
-        <v>0.1339474031364956</v>
+        <v>0.03859810787000981</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1086,929 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.750232666666667</v>
+      </c>
+      <c r="H11">
+        <v>5.250698</v>
+      </c>
+      <c r="I11">
+        <v>0.4408087639602368</v>
+      </c>
+      <c r="J11">
+        <v>0.4408087639602368</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.293933666666666</v>
+      </c>
+      <c r="N11">
+        <v>6.881800999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.2361518516099917</v>
+      </c>
+      <c r="P11">
+        <v>0.2361518516099917</v>
+      </c>
+      <c r="Q11">
+        <v>4.014917638566444</v>
+      </c>
+      <c r="R11">
+        <v>36.134258747098</v>
+      </c>
+      <c r="S11">
+        <v>0.1040978058151217</v>
+      </c>
+      <c r="T11">
+        <v>0.1040978058151217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.750232666666667</v>
+      </c>
+      <c r="H12">
+        <v>5.250698</v>
+      </c>
+      <c r="I12">
+        <v>0.4408087639602368</v>
+      </c>
+      <c r="J12">
+        <v>0.4408087639602368</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.1715316666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.514595</v>
+      </c>
+      <c r="O12">
+        <v>0.01765854055925821</v>
+      </c>
+      <c r="P12">
+        <v>0.01765854055925821</v>
+      </c>
+      <c r="Q12">
+        <v>0.3002203263677777</v>
+      </c>
+      <c r="R12">
+        <v>2.70198293731</v>
+      </c>
+      <c r="S12">
+        <v>0.007784039437268319</v>
+      </c>
+      <c r="T12">
+        <v>0.007784039437268319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.750232666666667</v>
+      </c>
+      <c r="H13">
+        <v>5.250698</v>
+      </c>
+      <c r="I13">
+        <v>0.4408087639602368</v>
+      </c>
+      <c r="J13">
+        <v>0.4408087639602368</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.547937</v>
+      </c>
+      <c r="N13">
+        <v>10.643811</v>
+      </c>
+      <c r="O13">
+        <v>0.3652467829041842</v>
+      </c>
+      <c r="P13">
+        <v>0.3652467829041842</v>
+      </c>
+      <c r="Q13">
+        <v>6.209715236675333</v>
+      </c>
+      <c r="R13">
+        <v>55.887437130078</v>
+      </c>
+      <c r="S13">
+        <v>0.1610039829124464</v>
+      </c>
+      <c r="T13">
+        <v>0.1610039829124464</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.1708593333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.512578</v>
+      </c>
+      <c r="I14">
+        <v>0.04303215965062364</v>
+      </c>
+      <c r="J14">
+        <v>0.04303215965062364</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.715363</v>
+      </c>
+      <c r="N14">
+        <v>5.146089</v>
+      </c>
+      <c r="O14">
+        <v>0.1765901754351529</v>
+      </c>
+      <c r="P14">
+        <v>0.1765901754351529</v>
+      </c>
+      <c r="Q14">
+        <v>0.2930857786046667</v>
+      </c>
+      <c r="R14">
+        <v>2.637772007442</v>
+      </c>
+      <c r="S14">
+        <v>0.007599056622057137</v>
+      </c>
+      <c r="T14">
+        <v>0.007599056622057137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1.92725472718304</v>
-      </c>
-      <c r="H11">
-        <v>1.92725472718304</v>
-      </c>
-      <c r="I11">
-        <v>0.5337621494192415</v>
-      </c>
-      <c r="J11">
-        <v>0.5337621494192415</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>3.27530090617374</v>
-      </c>
-      <c r="N11">
-        <v>3.27530090617374</v>
-      </c>
-      <c r="O11">
-        <v>0.3782885730018076</v>
-      </c>
-      <c r="P11">
-        <v>0.3782885730018076</v>
-      </c>
-      <c r="Q11">
-        <v>6.312339154370235</v>
-      </c>
-      <c r="R11">
-        <v>6.312339154370235</v>
-      </c>
-      <c r="S11">
-        <v>0.2019161218261825</v>
-      </c>
-      <c r="T11">
-        <v>0.2019161218261825</v>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.1708593333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.512578</v>
+      </c>
+      <c r="I15">
+        <v>0.04303215965062364</v>
+      </c>
+      <c r="J15">
+        <v>0.04303215965062364</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.134481666666667</v>
+      </c>
+      <c r="N15">
+        <v>3.403445</v>
+      </c>
+      <c r="O15">
+        <v>0.1167906248092277</v>
+      </c>
+      <c r="P15">
+        <v>0.1167906248092278</v>
+      </c>
+      <c r="Q15">
+        <v>0.1938367812455556</v>
+      </c>
+      <c r="R15">
+        <v>1.74453103121</v>
+      </c>
+      <c r="S15">
+        <v>0.005025752812486775</v>
+      </c>
+      <c r="T15">
+        <v>0.005025752812486775</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.1708593333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.512578</v>
+      </c>
+      <c r="I16">
+        <v>0.04303215965062364</v>
+      </c>
+      <c r="J16">
+        <v>0.04303215965062364</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.8505606666666666</v>
+      </c>
+      <c r="N16">
+        <v>2.551682</v>
+      </c>
+      <c r="O16">
+        <v>0.08756202468218523</v>
+      </c>
+      <c r="P16">
+        <v>0.08756202468218523</v>
+      </c>
+      <c r="Q16">
+        <v>0.1453262284662222</v>
+      </c>
+      <c r="R16">
+        <v>1.307936056196</v>
+      </c>
+      <c r="S16">
+        <v>0.003767983025455642</v>
+      </c>
+      <c r="T16">
+        <v>0.003767983025455642</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.1708593333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.512578</v>
+      </c>
+      <c r="I17">
+        <v>0.04303215965062364</v>
+      </c>
+      <c r="J17">
+        <v>0.04303215965062364</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.293933666666666</v>
+      </c>
+      <c r="N17">
+        <v>6.881800999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.2361518516099917</v>
+      </c>
+      <c r="P17">
+        <v>0.2361518516099917</v>
+      </c>
+      <c r="Q17">
+        <v>0.3919399769975555</v>
+      </c>
+      <c r="R17">
+        <v>3.527459792978</v>
+      </c>
+      <c r="S17">
+        <v>0.01016212418027155</v>
+      </c>
+      <c r="T17">
+        <v>0.01016212418027155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.1708593333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.512578</v>
+      </c>
+      <c r="I18">
+        <v>0.04303215965062364</v>
+      </c>
+      <c r="J18">
+        <v>0.04303215965062364</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.1715316666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.514595</v>
+      </c>
+      <c r="O18">
+        <v>0.01765854055925821</v>
+      </c>
+      <c r="P18">
+        <v>0.01765854055925821</v>
+      </c>
+      <c r="Q18">
+        <v>0.02930778621222222</v>
+      </c>
+      <c r="R18">
+        <v>0.26377007591</v>
+      </c>
+      <c r="S18">
+        <v>0.0007598851365430121</v>
+      </c>
+      <c r="T18">
+        <v>0.0007598851365430121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.1708593333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.512578</v>
+      </c>
+      <c r="I19">
+        <v>0.04303215965062364</v>
+      </c>
+      <c r="J19">
+        <v>0.04303215965062364</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>3.547937</v>
+      </c>
+      <c r="N19">
+        <v>10.643811</v>
+      </c>
+      <c r="O19">
+        <v>0.3652467829041842</v>
+      </c>
+      <c r="P19">
+        <v>0.3652467829041842</v>
+      </c>
+      <c r="Q19">
+        <v>0.6061981505286667</v>
+      </c>
+      <c r="R19">
+        <v>5.455783354757999</v>
+      </c>
+      <c r="S19">
+        <v>0.01571735787380953</v>
+      </c>
+      <c r="T19">
+        <v>0.01571735787380953</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.979207333333333</v>
+      </c>
+      <c r="H20">
+        <v>5.937622</v>
+      </c>
+      <c r="I20">
+        <v>0.498477690905687</v>
+      </c>
+      <c r="J20">
+        <v>0.4984776909056871</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.715363</v>
+      </c>
+      <c r="N20">
+        <v>5.146089</v>
+      </c>
+      <c r="O20">
+        <v>0.1765901754351529</v>
+      </c>
+      <c r="P20">
+        <v>0.1765901754351529</v>
+      </c>
+      <c r="Q20">
+        <v>3.395059028928666</v>
+      </c>
+      <c r="R20">
+        <v>30.555531260358</v>
+      </c>
+      <c r="S20">
+        <v>0.0880262628875452</v>
+      </c>
+      <c r="T20">
+        <v>0.08802626288754521</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.979207333333333</v>
+      </c>
+      <c r="H21">
+        <v>5.937622</v>
+      </c>
+      <c r="I21">
+        <v>0.498477690905687</v>
+      </c>
+      <c r="J21">
+        <v>0.4984776909056871</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.134481666666667</v>
+      </c>
+      <c r="N21">
+        <v>3.403445</v>
+      </c>
+      <c r="O21">
+        <v>0.1167906248092277</v>
+      </c>
+      <c r="P21">
+        <v>0.1167906248092278</v>
+      </c>
+      <c r="Q21">
+        <v>2.245374434198889</v>
+      </c>
+      <c r="R21">
+        <v>20.20836990779</v>
+      </c>
+      <c r="S21">
+        <v>0.05821752097433629</v>
+      </c>
+      <c r="T21">
+        <v>0.0582175209743363</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.979207333333333</v>
+      </c>
+      <c r="H22">
+        <v>5.937622</v>
+      </c>
+      <c r="I22">
+        <v>0.498477690905687</v>
+      </c>
+      <c r="J22">
+        <v>0.4984776909056871</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.8505606666666666</v>
+      </c>
+      <c r="N22">
+        <v>2.551682</v>
+      </c>
+      <c r="O22">
+        <v>0.08756202468218523</v>
+      </c>
+      <c r="P22">
+        <v>0.08756202468218523</v>
+      </c>
+      <c r="Q22">
+        <v>1.683435908911555</v>
+      </c>
+      <c r="R22">
+        <v>15.150923180204</v>
+      </c>
+      <c r="S22">
+        <v>0.04364771587460246</v>
+      </c>
+      <c r="T22">
+        <v>0.04364771587460247</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.979207333333333</v>
+      </c>
+      <c r="H23">
+        <v>5.937622</v>
+      </c>
+      <c r="I23">
+        <v>0.498477690905687</v>
+      </c>
+      <c r="J23">
+        <v>0.4984776909056871</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.293933666666666</v>
+      </c>
+      <c r="N23">
+        <v>6.881800999999999</v>
+      </c>
+      <c r="O23">
+        <v>0.2361518516099917</v>
+      </c>
+      <c r="P23">
+        <v>0.2361518516099917</v>
+      </c>
+      <c r="Q23">
+        <v>4.540170335246888</v>
+      </c>
+      <c r="R23">
+        <v>40.86153301722199</v>
+      </c>
+      <c r="S23">
+        <v>0.1177164296936511</v>
+      </c>
+      <c r="T23">
+        <v>0.1177164296936511</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.979207333333333</v>
+      </c>
+      <c r="H24">
+        <v>5.937622</v>
+      </c>
+      <c r="I24">
+        <v>0.498477690905687</v>
+      </c>
+      <c r="J24">
+        <v>0.4984776909056871</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.1715316666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.514595</v>
+      </c>
+      <c r="O24">
+        <v>0.01765854055925821</v>
+      </c>
+      <c r="P24">
+        <v>0.01765854055925821</v>
+      </c>
+      <c r="Q24">
+        <v>0.3394967325655556</v>
+      </c>
+      <c r="R24">
+        <v>3.05547059309</v>
+      </c>
+      <c r="S24">
+        <v>0.00880238852274345</v>
+      </c>
+      <c r="T24">
+        <v>0.008802388522743452</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.979207333333333</v>
+      </c>
+      <c r="H25">
+        <v>5.937622</v>
+      </c>
+      <c r="I25">
+        <v>0.498477690905687</v>
+      </c>
+      <c r="J25">
+        <v>0.4984776909056871</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>3.547937</v>
+      </c>
+      <c r="N25">
+        <v>10.643811</v>
+      </c>
+      <c r="O25">
+        <v>0.3652467829041842</v>
+      </c>
+      <c r="P25">
+        <v>0.3652467829041842</v>
+      </c>
+      <c r="Q25">
+        <v>7.022102928604666</v>
+      </c>
+      <c r="R25">
+        <v>63.198926357442</v>
+      </c>
+      <c r="S25">
+        <v>0.1820673729528085</v>
+      </c>
+      <c r="T25">
+        <v>0.1820673729528085</v>
       </c>
     </row>
   </sheetData>
